--- a/data/trans_orig/P36BPD08_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>468225</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>451265</v>
+        <v>450285</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>483754</v>
+        <v>485644</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8514877074167811</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8206459232225156</v>
+        <v>0.8188638958264712</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8797292898836969</v>
+        <v>0.8831661331687747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>658</v>
@@ -762,19 +762,19 @@
         <v>469685</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>461496</v>
+        <v>461641</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>475463</v>
+        <v>475664</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9616585092546486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9448924576817641</v>
+        <v>0.9451902889076355</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9734902224697157</v>
+        <v>0.9739010534442134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1118</v>
@@ -783,19 +783,19 @@
         <v>937909</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>916492</v>
+        <v>918076</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>954681</v>
+        <v>953545</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9033114422963191</v>
+        <v>0.9033114422963192</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8826840422850393</v>
+        <v>0.8842099495288805</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9194642170126108</v>
+        <v>0.9183703075167199</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>31814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22550</v>
+        <v>22170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45663</v>
+        <v>46785</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05785513038118734</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04100860674069323</v>
+        <v>0.04031752935219822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0830398873722305</v>
+        <v>0.08508028843329296</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -833,19 +833,19 @@
         <v>12743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7512</v>
+        <v>8210</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19719</v>
+        <v>19741</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02609107927121149</v>
+        <v>0.02609107927121148</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01538084547481288</v>
+        <v>0.01680959103026093</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04037404855521762</v>
+        <v>0.04041906682085394</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -854,19 +854,19 @@
         <v>44557</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33048</v>
+        <v>33267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59904</v>
+        <v>60093</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04291349670000556</v>
+        <v>0.04291349670000554</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03182934635425731</v>
+        <v>0.03204016637272779</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05769465084403655</v>
+        <v>0.05787614313827809</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>49851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38655</v>
+        <v>38062</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63353</v>
+        <v>64094</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09065716220203149</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07029555114959206</v>
+        <v>0.0692175016486864</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1152095577335669</v>
+        <v>0.1165579305550446</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -904,19 +904,19 @@
         <v>5983</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2999</v>
+        <v>3120</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10965</v>
+        <v>11246</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01225041147413993</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006139537216138202</v>
+        <v>0.0063873659593174</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0224500889431958</v>
+        <v>0.02302606848073843</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -925,19 +925,19 @@
         <v>55835</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43660</v>
+        <v>44414</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71250</v>
+        <v>70204</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05377506100367523</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04204992157734908</v>
+        <v>0.04277541498443039</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06862188972632123</v>
+        <v>0.06761427370059102</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>433224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>418417</v>
+        <v>418065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>445653</v>
+        <v>446198</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8965498487546273</v>
+        <v>0.8965498487546272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8659067530895239</v>
+        <v>0.8651800701098077</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9222723929352498</v>
+        <v>0.9234008027546911</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>558</v>
@@ -1050,19 +1050,19 @@
         <v>400446</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>392546</v>
+        <v>391892</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>408239</v>
+        <v>407617</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9463599045108588</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9276901889721973</v>
+        <v>0.9261448842936855</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9647785039485264</v>
+        <v>0.9633084428804208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>984</v>
@@ -1071,19 +1071,19 @@
         <v>833669</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>816933</v>
+        <v>817556</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>847900</v>
+        <v>848551</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9198042790081454</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.901338600691347</v>
+        <v>0.9020257306288562</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9355056711487912</v>
+        <v>0.9362233020379646</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>22581</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14409</v>
+        <v>13722</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>35664</v>
+        <v>34720</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04673047965233576</v>
+        <v>0.04673047965233575</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02981923055996796</v>
+        <v>0.02839829161413797</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07380527244930422</v>
+        <v>0.07185226827259929</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -1121,19 +1121,19 @@
         <v>9759</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5793</v>
+        <v>5411</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16411</v>
+        <v>15999</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02306211388780277</v>
+        <v>0.02306211388780278</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01369012444495656</v>
+        <v>0.01278674437370097</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03878290519183542</v>
+        <v>0.03781074800022914</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>37</v>
@@ -1142,19 +1142,19 @@
         <v>32339</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>22554</v>
+        <v>22635</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>45658</v>
+        <v>46051</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03568061527194444</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02488431970517823</v>
+        <v>0.02497379038335224</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05037493870886863</v>
+        <v>0.05080936027661175</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>27408</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18337</v>
+        <v>19114</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37963</v>
+        <v>37405</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05671967159303699</v>
+        <v>0.05671967159303698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03794750991146363</v>
+        <v>0.03955544492696817</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0785639983378441</v>
+        <v>0.07740929349619245</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1192,19 +1192,19 @@
         <v>12939</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7284</v>
+        <v>7473</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19829</v>
+        <v>20858</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03057798160133826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01721433681920011</v>
+        <v>0.01765985356573003</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04686139915640519</v>
+        <v>0.04929223734606451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1213,19 +1213,19 @@
         <v>40346</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28801</v>
+        <v>30471</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52305</v>
+        <v>53337</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0445151057199101</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03177714049918549</v>
+        <v>0.0336188982035303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05770965865163539</v>
+        <v>0.05884745838928798</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>404079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>389426</v>
+        <v>387467</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>417886</v>
+        <v>417260</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8589503664880574</v>
+        <v>0.8589503664880576</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8278008284206861</v>
+        <v>0.8236373036828465</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8882987132845066</v>
+        <v>0.8869680897323685</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>272</v>
@@ -1338,19 +1338,19 @@
         <v>176606</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>170846</v>
+        <v>170402</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>180689</v>
+        <v>180867</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9419134965489853</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9111913095229232</v>
+        <v>0.9088228838856612</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9636925518843</v>
+        <v>0.9646380953739669</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>682</v>
@@ -1359,19 +1359,19 @@
         <v>580685</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>561909</v>
+        <v>563210</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>595007</v>
+        <v>593986</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8825931970074333</v>
+        <v>0.8825931970074335</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8540546171700536</v>
+        <v>0.8560327163551481</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.904361352803132</v>
+        <v>0.9028091505545972</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>18197</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10831</v>
+        <v>10892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28869</v>
+        <v>31494</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03868152753826837</v>
+        <v>0.03868152753826838</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0230234649918114</v>
+        <v>0.02315205824280378</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06136708664743773</v>
+        <v>0.06694687361990655</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1409,19 +1409,19 @@
         <v>5380</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2656</v>
+        <v>2531</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10473</v>
+        <v>10379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02869160929952099</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01416495696214621</v>
+        <v>0.01349828834730204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05585759183465735</v>
+        <v>0.05535677519403725</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -1430,19 +1430,19 @@
         <v>23577</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15675</v>
+        <v>15498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35343</v>
+        <v>37506</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03583460091378265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.023823949208523</v>
+        <v>0.02355493994539602</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05371880508781964</v>
+        <v>0.05700605188345387</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>48157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37147</v>
+        <v>37926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61423</v>
+        <v>62476</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1023681059736741</v>
+        <v>0.1023681059736742</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07896362268119785</v>
+        <v>0.08061839970623064</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1305672215340491</v>
+        <v>0.1328049622578763</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1480,19 +1480,19 @@
         <v>5511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2525</v>
+        <v>2692</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10162</v>
+        <v>9610</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02939489415149368</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01346542456280565</v>
+        <v>0.01435807076222264</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0542007793930356</v>
+        <v>0.05125660601022266</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -1501,19 +1501,19 @@
         <v>53669</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42741</v>
+        <v>41281</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68235</v>
+        <v>67869</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.08157220207878389</v>
+        <v>0.08157220207878391</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06496349336316289</v>
+        <v>0.06274338335006051</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1037111888265855</v>
+        <v>0.1031550080140812</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>969883</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>944885</v>
+        <v>946249</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>993853</v>
+        <v>993976</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.858765002169175</v>
+        <v>0.8587650021691748</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8366305422763861</v>
+        <v>0.8378384797351697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8799882616769356</v>
+        <v>0.8800978456715958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1190</v>
@@ -1626,19 +1626,19 @@
         <v>833847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>822217</v>
+        <v>823560</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>841929</v>
+        <v>842203</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9695297744750697</v>
+        <v>0.9695297744750696</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9560076217834358</v>
+        <v>0.9575684264887853</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9789263575230795</v>
+        <v>0.9792456968614834</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2133</v>
@@ -1647,19 +1647,19 @@
         <v>1803730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1775621</v>
+        <v>1771933</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1829874</v>
+        <v>1828602</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9066494835961684</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8925202818294312</v>
+        <v>0.8906666499260304</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9197907181808569</v>
+        <v>0.9191513586872093</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>58194</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42605</v>
+        <v>42095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78192</v>
+        <v>79268</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05152648426490335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03772352631578633</v>
+        <v>0.03727197120262291</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06923360023271272</v>
+        <v>0.07018610548763315</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -1697,19 +1697,19 @@
         <v>15112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9315</v>
+        <v>9142</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23068</v>
+        <v>21722</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01757118276005934</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01083031949364019</v>
+        <v>0.01062985187285234</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02682138959956065</v>
+        <v>0.02525628239479172</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>79</v>
@@ -1718,19 +1718,19 @@
         <v>73306</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56623</v>
+        <v>57548</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>96390</v>
+        <v>98995</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0368473406129271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02846148231813497</v>
+        <v>0.02892644613491936</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04845061623882248</v>
+        <v>0.04975995152317078</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>101316</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>85668</v>
+        <v>84041</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>123088</v>
+        <v>120310</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08970851356592184</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0758532356113725</v>
+        <v>0.07441263394710775</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1089857399436369</v>
+        <v>0.1065261158006559</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1768,19 +1768,19 @@
         <v>11094</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6513</v>
+        <v>6191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21138</v>
+        <v>19749</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01289904276487101</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007572531640611621</v>
+        <v>0.007198041759400173</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02457737595231701</v>
+        <v>0.0229620331220409</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>132</v>
@@ -1789,19 +1789,19 @@
         <v>112410</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>92923</v>
+        <v>93764</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>131994</v>
+        <v>135170</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.05650317579090449</v>
+        <v>0.0565031757909045</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04670816757113597</v>
+        <v>0.04713062797085101</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06634731974059849</v>
+        <v>0.06794337659199226</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>489799</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>472752</v>
+        <v>468939</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>506667</v>
+        <v>505967</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8666526200165039</v>
+        <v>0.866652620016504</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.836489611935323</v>
+        <v>0.829743004013517</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8964992660562031</v>
+        <v>0.8952602141370068</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1254</v>
@@ -1914,19 +1914,19 @@
         <v>806050</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>795606</v>
+        <v>796750</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>813108</v>
+        <v>813514</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9701511449638006</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9575806109231646</v>
+        <v>0.9589576199384522</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9786464400890005</v>
+        <v>0.9791347123997837</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1719</v>
@@ -1935,19 +1935,19 @@
         <v>1295849</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1272711</v>
+        <v>1274118</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1314580</v>
+        <v>1313720</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9282507831853214</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9116761047039682</v>
+        <v>0.9126842439229923</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9416680768747638</v>
+        <v>0.9410520755264976</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>24302</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15877</v>
+        <v>16326</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36395</v>
+        <v>35169</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04299996996878367</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02809291641863287</v>
+        <v>0.02888711065601974</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06439701321929872</v>
+        <v>0.06222830036024321</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -1985,19 +1985,19 @@
         <v>13058</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8300</v>
+        <v>7833</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20831</v>
+        <v>19697</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01571686757086885</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.009989884843283505</v>
+        <v>0.009427700697507521</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02507134137017693</v>
+        <v>0.02370682590072282</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>46</v>
@@ -2006,19 +2006,19 @@
         <v>37360</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27018</v>
+        <v>27461</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>50279</v>
+        <v>49955</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02676216373807559</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01935375531122693</v>
+        <v>0.01967121751959175</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0360161696605768</v>
+        <v>0.03578438720352032</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>51061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37603</v>
+        <v>38232</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65135</v>
+        <v>68810</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09034741001471221</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06653430571375636</v>
+        <v>0.06764819508406857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1152497493528275</v>
+        <v>0.121752531782154</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -2056,19 +2056,19 @@
         <v>11742</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6965</v>
+        <v>6832</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19323</v>
+        <v>19436</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01413198746533061</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008382779953081372</v>
+        <v>0.008223043074914621</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02325676789572038</v>
+        <v>0.0233928622166925</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -2077,19 +2077,19 @@
         <v>62802</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46936</v>
+        <v>48172</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81115</v>
+        <v>81171</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04498705307660306</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03362122425540601</v>
+        <v>0.03450675085107477</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05810509923202503</v>
+        <v>0.05814488578746856</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>226372</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>215291</v>
+        <v>215285</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>232972</v>
+        <v>232798</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9588557364999371</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.911917525248817</v>
+        <v>0.9118920066956979</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.98681179062319</v>
+        <v>0.9860749134715112</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1120</v>
@@ -2202,19 +2202,19 @@
         <v>819073</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>809781</v>
+        <v>809793</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>826648</v>
+        <v>826084</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9708361243957772</v>
+        <v>0.9708361243957773</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9598227537119083</v>
+        <v>0.9598368603142906</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9798148483038038</v>
+        <v>0.9791456698073798</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1225</v>
@@ -2223,19 +2223,19 @@
         <v>1045445</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1030690</v>
+        <v>1029902</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1055077</v>
+        <v>1054761</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9682166603298575</v>
+        <v>0.9682166603298573</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.954551292685843</v>
+        <v>0.9538212106765263</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9771368431212079</v>
+        <v>0.9768442983560689</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>9206</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3048</v>
+        <v>3009</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20649</v>
+        <v>20601</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03899496323674696</v>
+        <v>0.03899496323674697</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01291075632110064</v>
+        <v>0.01274545726058139</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08746272364916068</v>
+        <v>0.08725954957563019</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2273,19 +2273,19 @@
         <v>11281</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6834</v>
+        <v>7046</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17483</v>
+        <v>17167</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01337157166313294</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008099712913545911</v>
+        <v>0.008352071772973939</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02072255224528521</v>
+        <v>0.0203476466346943</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -2294,19 +2294,19 @@
         <v>20487</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13054</v>
+        <v>12661</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33884</v>
+        <v>32477</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0189740241093829</v>
+        <v>0.01897402410938289</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01208922769960176</v>
+        <v>0.0117260963997338</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.031381240020573</v>
+        <v>0.0300775265111962</v>
       </c>
     </row>
     <row r="26">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2865</v>
+        <v>2774</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002149300263316068</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01213520892451694</v>
+        <v>0.01175107257556154</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -2344,19 +2344,19 @@
         <v>13324</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8254</v>
+        <v>8303</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21185</v>
+        <v>20627</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01579230394108979</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009783071755833234</v>
+        <v>0.009841937332954921</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0251101232781481</v>
+        <v>0.02444941878706786</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -2365,19 +2365,19 @@
         <v>13831</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8660</v>
+        <v>8923</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21807</v>
+        <v>22863</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01280931556075963</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008020366865207271</v>
+        <v>0.008263892462045563</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02019648090517619</v>
+        <v>0.02117372111693427</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>2991582</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2948979</v>
+        <v>2952639</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3032503</v>
+        <v>3030924</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.8711206256510924</v>
+        <v>0.8711206256510925</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8587152901369418</v>
+        <v>0.8597808620005042</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8830366259176452</v>
+        <v>0.8825766818146624</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5052</v>
@@ -2490,19 +2490,19 @@
         <v>3505706</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3484068</v>
+        <v>3483700</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3522912</v>
+        <v>3522234</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9647939767112972</v>
+        <v>0.9647939767112973</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9588388740613517</v>
+        <v>0.9587376352094563</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9695290220957621</v>
+        <v>0.9693425751983501</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7861</v>
@@ -2511,19 +2511,19 @@
         <v>6497288</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6447629</v>
+        <v>6449805</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6543602</v>
+        <v>6541353</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.919279044830158</v>
+        <v>0.9192790448301579</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9122529230280915</v>
+        <v>0.9125608591741481</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9258318397263999</v>
+        <v>0.9255136320751288</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>164294</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>135287</v>
+        <v>139497</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>193382</v>
+        <v>194364</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04784073561632994</v>
+        <v>0.04784073561632993</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03939419645498343</v>
+        <v>0.04062021683974952</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05631109684271847</v>
+        <v>0.05659702919760251</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>102</v>
@@ -2561,19 +2561,19 @@
         <v>67333</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54699</v>
+        <v>54753</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>81533</v>
+        <v>81577</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01853053430224562</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01505342710494872</v>
+        <v>0.01506825987177738</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02243855565156806</v>
+        <v>0.02245057943613377</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>265</v>
@@ -2582,19 +2582,19 @@
         <v>231627</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>201336</v>
+        <v>204101</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>267351</v>
+        <v>264746</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0327720640557357</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02848630196318994</v>
+        <v>0.02887759683942739</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03782663583667924</v>
+        <v>0.03745805478096451</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>278301</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>249119</v>
+        <v>250647</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>314213</v>
+        <v>311863</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08103863873257755</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07254117460826348</v>
+        <v>0.07298602119766441</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09149589749310993</v>
+        <v>0.09081148945751727</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>87</v>
@@ -2632,19 +2632,19 @@
         <v>60593</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>48564</v>
+        <v>48430</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>76531</v>
+        <v>76473</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0166754889864571</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01336510778331788</v>
+        <v>0.0133283641377758</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02106183835021097</v>
+        <v>0.0210458374574701</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>407</v>
@@ -2653,19 +2653,19 @@
         <v>338894</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>303974</v>
+        <v>304219</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>373584</v>
+        <v>372238</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04794889111410633</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0430081834142791</v>
+        <v>0.04304286505353849</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05285712173582464</v>
+        <v>0.05266674230827194</v>
       </c>
     </row>
     <row r="31">
